--- a/Proyecto en contruccion/mikel/Formato_Elec_euro_españa_año_2024 Mikel.xlsx
+++ b/Proyecto en contruccion/mikel/Formato_Elec_euro_españa_año_2024 Mikel.xlsx
@@ -644,7 +644,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -669,19 +669,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -741,11 +741,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -801,9 +797,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>830880</xdr:colOff>
+      <xdr:colOff>830520</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>664920</xdr:rowOff>
+      <xdr:rowOff>664560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -817,7 +813,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9625680" cy="664920"/>
+          <a:ext cx="9625320" cy="664560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1012,9 +1008,9 @@
   <dimension ref="A1:AMH61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="5" topLeftCell="W33" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="5" topLeftCell="W24" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="CB60" activeCellId="0" sqref="CB60"/>
+      <selection pane="bottomLeft" activeCell="Y68" activeCellId="0" sqref="Y68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5629,13 +5625,13 @@
       <c r="C42" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D42" s="24" t="n">
+      <c r="D42" s="14" t="n">
         <v>1572511</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
-      <c r="H42" s="25" t="n">
+      <c r="H42" s="24" t="n">
         <v>1079064</v>
       </c>
       <c r="I42" s="1" t="n">
@@ -5691,47 +5687,47 @@
         <v>307</v>
       </c>
       <c r="AH42" s="17"/>
-      <c r="AI42" s="0" t="n">
+      <c r="AI42" s="1" t="n">
         <v>1128</v>
       </c>
       <c r="AJ42" s="17"/>
-      <c r="AK42" s="0" t="n">
+      <c r="AK42" s="1" t="n">
         <v>570</v>
       </c>
       <c r="AL42" s="17"/>
-      <c r="AM42" s="0" t="n">
+      <c r="AM42" s="1" t="n">
         <v>233</v>
       </c>
       <c r="AN42" s="17"/>
-      <c r="AO42" s="0" t="n">
+      <c r="AO42" s="1" t="n">
         <v>74</v>
       </c>
       <c r="AP42" s="17"/>
-      <c r="AQ42" s="0" t="n">
+      <c r="AQ42" s="1" t="n">
         <v>768</v>
       </c>
       <c r="AR42" s="17"/>
-      <c r="AS42" s="0" t="n">
+      <c r="AS42" s="1" t="n">
         <v>276</v>
       </c>
       <c r="AT42" s="17"/>
-      <c r="AU42" s="0" t="n">
+      <c r="AU42" s="1" t="n">
         <v>272</v>
       </c>
       <c r="AV42" s="17"/>
-      <c r="AW42" s="0" t="n">
+      <c r="AW42" s="1" t="n">
         <v>824</v>
       </c>
       <c r="AX42" s="17"/>
-      <c r="AY42" s="0" t="n">
+      <c r="AY42" s="1" t="n">
         <v>237</v>
       </c>
       <c r="AZ42" s="17"/>
-      <c r="BA42" s="0" t="n">
+      <c r="BA42" s="1" t="n">
         <v>46</v>
       </c>
       <c r="BB42" s="17"/>
-      <c r="BC42" s="0" t="n">
+      <c r="BC42" s="1" t="n">
         <v>319</v>
       </c>
       <c r="BD42" s="19"/>
@@ -5739,51 +5735,51 @@
         <v>207</v>
       </c>
       <c r="BF42" s="17"/>
-      <c r="BG42" s="0" t="n">
+      <c r="BG42" s="1" t="n">
         <v>16909</v>
       </c>
       <c r="BH42" s="17"/>
-      <c r="BI42" s="0" t="n">
+      <c r="BI42" s="1" t="n">
         <v>34036</v>
       </c>
       <c r="BJ42" s="17"/>
-      <c r="BK42" s="0" t="n">
+      <c r="BK42" s="1" t="n">
         <v>1916</v>
       </c>
       <c r="BL42" s="17"/>
-      <c r="BM42" s="0" t="n">
+      <c r="BM42" s="1" t="n">
         <v>618</v>
       </c>
       <c r="BN42" s="17"/>
-      <c r="BO42" s="0" t="n">
+      <c r="BO42" s="1" t="n">
         <v>240</v>
       </c>
       <c r="BP42" s="17"/>
-      <c r="BQ42" s="0" t="n">
+      <c r="BQ42" s="1" t="n">
         <v>526</v>
       </c>
       <c r="BR42" s="17"/>
-      <c r="BS42" s="0" t="n">
+      <c r="BS42" s="1" t="n">
         <v>109</v>
       </c>
       <c r="BT42" s="17"/>
-      <c r="BU42" s="0" t="n">
+      <c r="BU42" s="1" t="n">
         <v>64</v>
       </c>
       <c r="BV42" s="17"/>
-      <c r="BW42" s="0" t="n">
+      <c r="BW42" s="1" t="n">
         <v>241</v>
       </c>
       <c r="BX42" s="17"/>
-      <c r="BY42" s="0" t="n">
+      <c r="BY42" s="1" t="n">
         <v>54</v>
       </c>
       <c r="BZ42" s="17"/>
-      <c r="CA42" s="0" t="n">
+      <c r="CA42" s="1" t="n">
         <v>104</v>
       </c>
       <c r="CB42" s="17"/>
-      <c r="CC42" s="0" t="n">
+      <c r="CC42" s="1" t="n">
         <v>154</v>
       </c>
       <c r="CD42" s="17"/>
@@ -5798,7 +5794,7 @@
       <c r="C43" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D43" s="24" t="n">
+      <c r="D43" s="14" t="n">
         <v>679181</v>
       </c>
       <c r="F43" s="15"/>
@@ -5859,47 +5855,47 @@
         <v>128</v>
       </c>
       <c r="AH43" s="17"/>
-      <c r="AI43" s="0" t="n">
+      <c r="AI43" s="1" t="n">
         <v>172</v>
       </c>
       <c r="AJ43" s="17"/>
-      <c r="AK43" s="0" t="n">
+      <c r="AK43" s="1" t="n">
         <v>744</v>
       </c>
       <c r="AL43" s="17"/>
-      <c r="AM43" s="0" t="n">
+      <c r="AM43" s="1" t="n">
         <v>176</v>
       </c>
       <c r="AN43" s="17"/>
-      <c r="AO43" s="0" t="n">
+      <c r="AO43" s="1" t="n">
         <v>63</v>
       </c>
       <c r="AP43" s="17"/>
-      <c r="AQ43" s="0" t="n">
+      <c r="AQ43" s="1" t="n">
         <v>616</v>
       </c>
       <c r="AR43" s="17"/>
-      <c r="AS43" s="0" t="n">
+      <c r="AS43" s="1" t="n">
         <v>202</v>
       </c>
       <c r="AT43" s="17"/>
-      <c r="AU43" s="0" t="n">
+      <c r="AU43" s="1" t="n">
         <v>231</v>
       </c>
       <c r="AV43" s="17"/>
-      <c r="AW43" s="0" t="n">
+      <c r="AW43" s="1" t="n">
         <v>542</v>
       </c>
       <c r="AX43" s="17"/>
-      <c r="AY43" s="0" t="n">
+      <c r="AY43" s="1" t="n">
         <v>199</v>
       </c>
       <c r="AZ43" s="17"/>
-      <c r="BA43" s="0" t="n">
+      <c r="BA43" s="1" t="n">
         <v>28</v>
       </c>
       <c r="BB43" s="17"/>
-      <c r="BC43" s="0" t="n">
+      <c r="BC43" s="1" t="n">
         <v>75</v>
       </c>
       <c r="BD43" s="19"/>
@@ -5907,51 +5903,51 @@
         <v>139</v>
       </c>
       <c r="BF43" s="17"/>
-      <c r="BG43" s="0" t="n">
+      <c r="BG43" s="1" t="n">
         <v>10017</v>
       </c>
       <c r="BH43" s="17"/>
-      <c r="BI43" s="0" t="n">
+      <c r="BI43" s="1" t="n">
         <v>7972</v>
       </c>
       <c r="BJ43" s="17"/>
-      <c r="BK43" s="0" t="n">
+      <c r="BK43" s="1" t="n">
         <v>1268</v>
       </c>
       <c r="BL43" s="17"/>
-      <c r="BM43" s="0" t="n">
+      <c r="BM43" s="1" t="n">
         <v>709</v>
       </c>
       <c r="BN43" s="17"/>
-      <c r="BO43" s="0" t="n">
+      <c r="BO43" s="1" t="n">
         <v>209</v>
       </c>
       <c r="BP43" s="17"/>
-      <c r="BQ43" s="0" t="n">
+      <c r="BQ43" s="1" t="n">
         <v>548</v>
       </c>
       <c r="BR43" s="17"/>
-      <c r="BS43" s="0" t="n">
+      <c r="BS43" s="1" t="n">
         <v>70</v>
       </c>
       <c r="BT43" s="17"/>
-      <c r="BU43" s="0" t="n">
+      <c r="BU43" s="1" t="n">
         <v>47</v>
       </c>
       <c r="BV43" s="17"/>
-      <c r="BW43" s="0" t="n">
+      <c r="BW43" s="1" t="n">
         <v>112</v>
       </c>
       <c r="BX43" s="17"/>
-      <c r="BY43" s="0" t="n">
+      <c r="BY43" s="1" t="n">
         <v>35</v>
       </c>
       <c r="BZ43" s="17"/>
-      <c r="CA43" s="0" t="n">
+      <c r="CA43" s="1" t="n">
         <v>58</v>
       </c>
       <c r="CB43" s="17"/>
-      <c r="CC43" s="0" t="n">
+      <c r="CC43" s="1" t="n">
         <v>83</v>
       </c>
       <c r="CD43" s="17"/>
@@ -6027,47 +6023,47 @@
         <v>35</v>
       </c>
       <c r="AH44" s="17"/>
-      <c r="AI44" s="0" t="n">
+      <c r="AI44" s="1" t="n">
         <v>78</v>
       </c>
       <c r="AJ44" s="17"/>
-      <c r="AK44" s="0" t="n">
+      <c r="AK44" s="1" t="n">
         <v>130</v>
       </c>
       <c r="AL44" s="17"/>
-      <c r="AM44" s="0" t="n">
+      <c r="AM44" s="1" t="n">
         <v>73</v>
       </c>
       <c r="AN44" s="17"/>
-      <c r="AO44" s="0" t="n">
+      <c r="AO44" s="1" t="n">
         <v>12</v>
       </c>
       <c r="AP44" s="17"/>
-      <c r="AQ44" s="0" t="n">
+      <c r="AQ44" s="1" t="n">
         <v>64</v>
       </c>
       <c r="AR44" s="17"/>
-      <c r="AS44" s="0" t="n">
+      <c r="AS44" s="1" t="n">
         <v>48</v>
       </c>
       <c r="AT44" s="17"/>
-      <c r="AU44" s="0" t="n">
+      <c r="AU44" s="1" t="n">
         <v>76</v>
       </c>
       <c r="AV44" s="17"/>
-      <c r="AW44" s="0" t="n">
+      <c r="AW44" s="1" t="n">
         <v>82</v>
       </c>
       <c r="AX44" s="17"/>
-      <c r="AY44" s="0" t="n">
+      <c r="AY44" s="1" t="n">
         <v>34</v>
       </c>
       <c r="AZ44" s="17"/>
-      <c r="BA44" s="0" t="n">
+      <c r="BA44" s="1" t="n">
         <v>13</v>
       </c>
       <c r="BB44" s="17"/>
-      <c r="BC44" s="0" t="n">
+      <c r="BC44" s="1" t="n">
         <v>43</v>
       </c>
       <c r="BD44" s="19"/>
@@ -6075,51 +6071,51 @@
         <v>31</v>
       </c>
       <c r="BF44" s="17"/>
-      <c r="BG44" s="0" t="n">
+      <c r="BG44" s="1" t="n">
         <v>1480</v>
       </c>
       <c r="BH44" s="17"/>
-      <c r="BI44" s="0" t="n">
+      <c r="BI44" s="1" t="n">
         <v>2368</v>
       </c>
       <c r="BJ44" s="17"/>
-      <c r="BK44" s="0" t="n">
+      <c r="BK44" s="1" t="n">
         <v>279</v>
       </c>
       <c r="BL44" s="17"/>
-      <c r="BM44" s="0" t="n">
+      <c r="BM44" s="1" t="n">
         <v>91</v>
       </c>
       <c r="BN44" s="17"/>
-      <c r="BO44" s="0" t="n">
+      <c r="BO44" s="1" t="n">
         <v>65</v>
       </c>
       <c r="BP44" s="17"/>
-      <c r="BQ44" s="0" t="n">
+      <c r="BQ44" s="1" t="n">
         <v>65</v>
       </c>
       <c r="BR44" s="17"/>
-      <c r="BS44" s="0" t="n">
+      <c r="BS44" s="1" t="n">
         <v>13</v>
       </c>
       <c r="BT44" s="17"/>
-      <c r="BU44" s="0" t="n">
+      <c r="BU44" s="1" t="n">
         <v>26</v>
       </c>
       <c r="BV44" s="17"/>
-      <c r="BW44" s="0" t="n">
+      <c r="BW44" s="1" t="n">
         <v>33</v>
       </c>
       <c r="BX44" s="17"/>
-      <c r="BY44" s="0" t="n">
+      <c r="BY44" s="1" t="n">
         <v>44</v>
       </c>
       <c r="BZ44" s="17"/>
-      <c r="CA44" s="0" t="n">
+      <c r="CA44" s="1" t="n">
         <v>210</v>
       </c>
       <c r="CB44" s="17"/>
-      <c r="CC44" s="0" t="n">
+      <c r="CC44" s="1" t="n">
         <v>19</v>
       </c>
       <c r="CD44" s="17"/>
@@ -6195,47 +6191,47 @@
         <v>20</v>
       </c>
       <c r="AH45" s="17"/>
-      <c r="AI45" s="0" t="n">
+      <c r="AI45" s="1" t="n">
         <v>76</v>
       </c>
       <c r="AJ45" s="17"/>
-      <c r="AK45" s="0" t="n">
+      <c r="AK45" s="1" t="n">
         <v>127</v>
       </c>
       <c r="AL45" s="17"/>
-      <c r="AM45" s="0" t="n">
+      <c r="AM45" s="1" t="n">
         <v>38</v>
       </c>
       <c r="AN45" s="17"/>
-      <c r="AO45" s="0" t="n">
+      <c r="AO45" s="1" t="n">
         <v>10</v>
       </c>
       <c r="AP45" s="17"/>
-      <c r="AQ45" s="0" t="n">
+      <c r="AQ45" s="1" t="n">
         <v>226</v>
       </c>
       <c r="AR45" s="17"/>
-      <c r="AS45" s="0" t="n">
+      <c r="AS45" s="1" t="n">
         <v>69</v>
       </c>
       <c r="AT45" s="17"/>
-      <c r="AU45" s="0" t="n">
+      <c r="AU45" s="1" t="n">
         <v>44</v>
       </c>
       <c r="AV45" s="17"/>
-      <c r="AW45" s="0" t="n">
+      <c r="AW45" s="1" t="n">
         <v>158</v>
       </c>
       <c r="AX45" s="17"/>
-      <c r="AY45" s="0" t="n">
+      <c r="AY45" s="1" t="n">
         <v>40</v>
       </c>
       <c r="AZ45" s="17"/>
-      <c r="BA45" s="0" t="n">
+      <c r="BA45" s="1" t="n">
         <v>7</v>
       </c>
       <c r="BB45" s="17"/>
-      <c r="BC45" s="0" t="n">
+      <c r="BC45" s="1" t="n">
         <v>75</v>
       </c>
       <c r="BD45" s="19"/>
@@ -6243,51 +6239,51 @@
         <v>23</v>
       </c>
       <c r="BF45" s="17"/>
-      <c r="BG45" s="0" t="n">
+      <c r="BG45" s="1" t="n">
         <v>1892</v>
       </c>
       <c r="BH45" s="17"/>
-      <c r="BI45" s="0" t="n">
+      <c r="BI45" s="1" t="n">
         <v>2987</v>
       </c>
       <c r="BJ45" s="17"/>
-      <c r="BK45" s="0" t="n">
+      <c r="BK45" s="1" t="n">
         <v>276</v>
       </c>
       <c r="BL45" s="17"/>
-      <c r="BM45" s="0" t="n">
+      <c r="BM45" s="1" t="n">
         <v>90</v>
       </c>
       <c r="BN45" s="17"/>
-      <c r="BO45" s="0" t="n">
+      <c r="BO45" s="1" t="n">
         <v>52</v>
       </c>
       <c r="BP45" s="17"/>
-      <c r="BQ45" s="0" t="n">
+      <c r="BQ45" s="1" t="n">
         <v>81</v>
       </c>
       <c r="BR45" s="17"/>
-      <c r="BS45" s="0" t="n">
+      <c r="BS45" s="1" t="n">
         <v>7</v>
       </c>
       <c r="BT45" s="17"/>
-      <c r="BU45" s="0" t="n">
+      <c r="BU45" s="1" t="n">
         <v>45</v>
       </c>
       <c r="BV45" s="17"/>
-      <c r="BW45" s="0" t="n">
+      <c r="BW45" s="1" t="n">
         <v>33</v>
       </c>
       <c r="BX45" s="17"/>
-      <c r="BY45" s="0" t="n">
+      <c r="BY45" s="1" t="n">
         <v>9</v>
       </c>
       <c r="BZ45" s="17"/>
-      <c r="CA45" s="0" t="n">
+      <c r="CA45" s="1" t="n">
         <v>18</v>
       </c>
       <c r="CB45" s="17"/>
-      <c r="CC45" s="0" t="n">
+      <c r="CC45" s="1" t="n">
         <v>16</v>
       </c>
       <c r="CD45" s="17"/>
@@ -6302,7 +6298,7 @@
       <c r="C46" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="D46" s="24" t="n">
+      <c r="D46" s="14" t="n">
         <v>946710</v>
       </c>
       <c r="E46" s="15"/>
@@ -6364,47 +6360,47 @@
         <v>152</v>
       </c>
       <c r="AH46" s="17"/>
-      <c r="AI46" s="0" t="n">
+      <c r="AI46" s="1" t="n">
         <v>264</v>
       </c>
       <c r="AJ46" s="17"/>
-      <c r="AK46" s="0" t="n">
+      <c r="AK46" s="1" t="n">
         <v>556</v>
       </c>
       <c r="AL46" s="17"/>
-      <c r="AM46" s="0" t="n">
+      <c r="AM46" s="1" t="n">
         <v>217</v>
       </c>
       <c r="AN46" s="17"/>
-      <c r="AO46" s="0" t="n">
+      <c r="AO46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="AP46" s="17"/>
-      <c r="AQ46" s="0" t="n">
+      <c r="AQ46" s="1" t="n">
         <v>147</v>
       </c>
       <c r="AR46" s="17"/>
-      <c r="AS46" s="0" t="n">
+      <c r="AS46" s="1" t="n">
         <v>193</v>
       </c>
       <c r="AT46" s="17"/>
-      <c r="AU46" s="0" t="n">
+      <c r="AU46" s="1" t="n">
         <v>184</v>
       </c>
       <c r="AV46" s="17"/>
-      <c r="AW46" s="0" t="n">
+      <c r="AW46" s="1" t="n">
         <v>311</v>
       </c>
       <c r="AX46" s="17"/>
-      <c r="AY46" s="0" t="n">
+      <c r="AY46" s="1" t="n">
         <v>142</v>
       </c>
       <c r="AZ46" s="17"/>
-      <c r="BA46" s="0" t="n">
+      <c r="BA46" s="1" t="n">
         <v>28</v>
       </c>
       <c r="BB46" s="17"/>
-      <c r="BC46" s="0" t="n">
+      <c r="BC46" s="1" t="n">
         <v>110</v>
       </c>
       <c r="BD46" s="19"/>
@@ -6412,51 +6408,51 @@
         <v>104</v>
       </c>
       <c r="BF46" s="17"/>
-      <c r="BG46" s="0" t="n">
+      <c r="BG46" s="1" t="n">
         <v>10182</v>
       </c>
       <c r="BH46" s="17"/>
-      <c r="BI46" s="0" t="n">
+      <c r="BI46" s="1" t="n">
         <v>8864</v>
       </c>
       <c r="BJ46" s="17"/>
-      <c r="BK46" s="0" t="n">
+      <c r="BK46" s="1" t="n">
         <v>1001</v>
       </c>
       <c r="BL46" s="17"/>
-      <c r="BM46" s="0" t="n">
+      <c r="BM46" s="1" t="n">
         <v>438</v>
       </c>
       <c r="BN46" s="17"/>
-      <c r="BO46" s="0" t="n">
+      <c r="BO46" s="1" t="n">
         <v>165</v>
       </c>
       <c r="BP46" s="17"/>
-      <c r="BQ46" s="0" t="n">
+      <c r="BQ46" s="1" t="n">
         <v>501</v>
       </c>
       <c r="BR46" s="17"/>
-      <c r="BS46" s="0" t="n">
+      <c r="BS46" s="1" t="n">
         <v>92</v>
       </c>
       <c r="BT46" s="17"/>
-      <c r="BU46" s="0" t="n">
+      <c r="BU46" s="1" t="n">
         <v>46</v>
       </c>
       <c r="BV46" s="17"/>
-      <c r="BW46" s="0" t="n">
+      <c r="BW46" s="1" t="n">
         <v>55</v>
       </c>
       <c r="BX46" s="17"/>
-      <c r="BY46" s="0" t="n">
+      <c r="BY46" s="1" t="n">
         <v>38</v>
       </c>
       <c r="BZ46" s="17"/>
-      <c r="CA46" s="0" t="n">
+      <c r="CA46" s="1" t="n">
         <v>604</v>
       </c>
       <c r="CB46" s="17"/>
-      <c r="CC46" s="0" t="n">
+      <c r="CC46" s="1" t="n">
         <v>64</v>
       </c>
       <c r="CD46" s="17"/>
@@ -6532,47 +6528,47 @@
         <v>26</v>
       </c>
       <c r="AH47" s="17"/>
-      <c r="AI47" s="0" t="n">
+      <c r="AI47" s="1" t="n">
         <v>163</v>
       </c>
       <c r="AJ47" s="17"/>
-      <c r="AK47" s="0" t="n">
+      <c r="AK47" s="1" t="n">
         <v>196</v>
       </c>
       <c r="AL47" s="17"/>
-      <c r="AM47" s="0" t="n">
+      <c r="AM47" s="1" t="n">
         <v>56</v>
       </c>
       <c r="AN47" s="17"/>
-      <c r="AO47" s="0" t="n">
+      <c r="AO47" s="1" t="n">
         <v>15</v>
       </c>
       <c r="AP47" s="17"/>
-      <c r="AQ47" s="0" t="n">
+      <c r="AQ47" s="1" t="n">
         <v>226</v>
       </c>
       <c r="AR47" s="17"/>
-      <c r="AS47" s="0" t="n">
+      <c r="AS47" s="1" t="n">
         <v>106</v>
       </c>
       <c r="AT47" s="17"/>
-      <c r="AU47" s="0" t="n">
+      <c r="AU47" s="1" t="n">
         <v>65</v>
       </c>
       <c r="AV47" s="17"/>
-      <c r="AW47" s="0" t="n">
+      <c r="AW47" s="1" t="n">
         <v>289</v>
       </c>
       <c r="AX47" s="17"/>
-      <c r="AY47" s="0" t="n">
+      <c r="AY47" s="1" t="n">
         <v>78</v>
       </c>
       <c r="AZ47" s="17"/>
-      <c r="BA47" s="0" t="n">
+      <c r="BA47" s="1" t="n">
         <v>29</v>
       </c>
       <c r="BB47" s="17"/>
-      <c r="BC47" s="0" t="n">
+      <c r="BC47" s="1" t="n">
         <v>103</v>
       </c>
       <c r="BD47" s="19"/>
@@ -6580,51 +6576,51 @@
         <v>46</v>
       </c>
       <c r="BF47" s="17"/>
-      <c r="BG47" s="0" t="n">
+      <c r="BG47" s="1" t="n">
         <v>3332</v>
       </c>
       <c r="BH47" s="17"/>
-      <c r="BI47" s="0" t="n">
+      <c r="BI47" s="1" t="n">
         <v>5323</v>
       </c>
       <c r="BJ47" s="17"/>
-      <c r="BK47" s="0" t="n">
+      <c r="BK47" s="1" t="n">
         <v>441</v>
       </c>
       <c r="BL47" s="17"/>
-      <c r="BM47" s="0" t="n">
+      <c r="BM47" s="1" t="n">
         <v>115</v>
       </c>
       <c r="BN47" s="17"/>
-      <c r="BO47" s="0" t="n">
+      <c r="BO47" s="1" t="n">
         <v>124</v>
       </c>
       <c r="BP47" s="17"/>
-      <c r="BQ47" s="0" t="n">
+      <c r="BQ47" s="1" t="n">
         <v>95</v>
       </c>
       <c r="BR47" s="17"/>
-      <c r="BS47" s="0" t="n">
+      <c r="BS47" s="1" t="n">
         <v>72</v>
       </c>
       <c r="BT47" s="17"/>
-      <c r="BU47" s="0" t="n">
+      <c r="BU47" s="1" t="n">
         <v>474</v>
       </c>
       <c r="BV47" s="17"/>
-      <c r="BW47" s="0" t="n">
+      <c r="BW47" s="1" t="n">
         <v>41</v>
       </c>
       <c r="BX47" s="17"/>
-      <c r="BY47" s="0" t="n">
+      <c r="BY47" s="1" t="n">
         <v>32</v>
       </c>
       <c r="BZ47" s="17"/>
-      <c r="CA47" s="0" t="n">
+      <c r="CA47" s="1" t="n">
         <v>25</v>
       </c>
       <c r="CB47" s="17"/>
-      <c r="CC47" s="0" t="n">
+      <c r="CC47" s="1" t="n">
         <v>25</v>
       </c>
       <c r="CD47" s="17"/>
@@ -6700,47 +6696,47 @@
         <v>226</v>
       </c>
       <c r="AH48" s="17"/>
-      <c r="AI48" s="0" t="n">
+      <c r="AI48" s="1" t="n">
         <v>477</v>
       </c>
       <c r="AJ48" s="17"/>
-      <c r="AK48" s="0" t="n">
+      <c r="AK48" s="1" t="n">
         <v>616</v>
       </c>
       <c r="AL48" s="17"/>
-      <c r="AM48" s="0" t="n">
+      <c r="AM48" s="1" t="n">
         <v>237</v>
       </c>
       <c r="AN48" s="17"/>
-      <c r="AO48" s="0" t="n">
+      <c r="AO48" s="1" t="n">
         <v>155</v>
       </c>
       <c r="AP48" s="17"/>
-      <c r="AQ48" s="0" t="n">
+      <c r="AQ48" s="1" t="n">
         <v>181</v>
       </c>
       <c r="AR48" s="17"/>
-      <c r="AS48" s="0" t="n">
+      <c r="AS48" s="1" t="n">
         <v>211</v>
       </c>
       <c r="AT48" s="17"/>
-      <c r="AU48" s="0" t="n">
+      <c r="AU48" s="1" t="n">
         <v>212</v>
       </c>
       <c r="AV48" s="17"/>
-      <c r="AW48" s="0" t="n">
+      <c r="AW48" s="1" t="n">
         <v>570</v>
       </c>
       <c r="AX48" s="17"/>
-      <c r="AY48" s="0" t="n">
+      <c r="AY48" s="1" t="n">
         <v>166</v>
       </c>
       <c r="AZ48" s="17"/>
-      <c r="BA48" s="0" t="n">
+      <c r="BA48" s="1" t="n">
         <v>33</v>
       </c>
       <c r="BB48" s="17"/>
-      <c r="BC48" s="0" t="n">
+      <c r="BC48" s="1" t="n">
         <v>119</v>
       </c>
       <c r="BD48" s="19"/>
@@ -6748,51 +6744,51 @@
         <v>133</v>
       </c>
       <c r="BF48" s="17"/>
-      <c r="BG48" s="0" t="n">
+      <c r="BG48" s="1" t="n">
         <v>11184</v>
       </c>
       <c r="BH48" s="17"/>
-      <c r="BI48" s="0" t="n">
+      <c r="BI48" s="1" t="n">
         <v>19589</v>
       </c>
       <c r="BJ48" s="17"/>
-      <c r="BK48" s="0" t="n">
+      <c r="BK48" s="1" t="n">
         <v>988</v>
       </c>
       <c r="BL48" s="17"/>
-      <c r="BM48" s="0" t="n">
+      <c r="BM48" s="1" t="n">
         <v>658</v>
       </c>
       <c r="BN48" s="17"/>
-      <c r="BO48" s="0" t="n">
+      <c r="BO48" s="1" t="n">
         <v>106</v>
       </c>
       <c r="BP48" s="17"/>
-      <c r="BQ48" s="0" t="n">
+      <c r="BQ48" s="1" t="n">
         <v>397</v>
       </c>
       <c r="BR48" s="17"/>
-      <c r="BS48" s="0" t="n">
+      <c r="BS48" s="1" t="n">
         <v>126</v>
       </c>
       <c r="BT48" s="17"/>
-      <c r="BU48" s="0" t="n">
+      <c r="BU48" s="1" t="n">
         <v>74</v>
       </c>
       <c r="BV48" s="17"/>
-      <c r="BW48" s="0" t="n">
+      <c r="BW48" s="1" t="n">
         <v>117</v>
       </c>
       <c r="BX48" s="17"/>
-      <c r="BY48" s="0" t="n">
+      <c r="BY48" s="1" t="n">
         <v>51</v>
       </c>
       <c r="BZ48" s="17"/>
-      <c r="CA48" s="0" t="n">
+      <c r="CA48" s="1" t="n">
         <v>112</v>
       </c>
       <c r="CB48" s="17"/>
-      <c r="CC48" s="0" t="n">
+      <c r="CC48" s="1" t="n">
         <v>106</v>
       </c>
       <c r="CD48" s="17"/>
@@ -6868,47 +6864,47 @@
         <v>21</v>
       </c>
       <c r="AH49" s="17"/>
-      <c r="AI49" s="0" t="n">
+      <c r="AI49" s="1" t="n">
         <v>74</v>
       </c>
       <c r="AJ49" s="17"/>
-      <c r="AK49" s="0" t="n">
+      <c r="AK49" s="1" t="n">
         <v>87</v>
       </c>
       <c r="AL49" s="17"/>
-      <c r="AM49" s="0" t="n">
+      <c r="AM49" s="1" t="n">
         <v>23</v>
       </c>
       <c r="AN49" s="17"/>
-      <c r="AO49" s="0" t="n">
+      <c r="AO49" s="1" t="n">
         <v>13</v>
       </c>
       <c r="AP49" s="17"/>
-      <c r="AQ49" s="0" t="n">
+      <c r="AQ49" s="1" t="n">
         <v>187</v>
       </c>
       <c r="AR49" s="17"/>
-      <c r="AS49" s="0" t="n">
+      <c r="AS49" s="1" t="n">
         <v>54</v>
       </c>
       <c r="AT49" s="17"/>
-      <c r="AU49" s="0" t="n">
+      <c r="AU49" s="1" t="n">
         <v>32</v>
       </c>
       <c r="AV49" s="17"/>
-      <c r="AW49" s="0" t="n">
+      <c r="AW49" s="1" t="n">
         <v>162</v>
       </c>
       <c r="AX49" s="17"/>
-      <c r="AY49" s="0" t="n">
+      <c r="AY49" s="1" t="n">
         <v>40</v>
       </c>
       <c r="AZ49" s="17"/>
-      <c r="BA49" s="0" t="n">
+      <c r="BA49" s="1" t="n">
         <v>15</v>
       </c>
       <c r="BB49" s="17"/>
-      <c r="BC49" s="0" t="n">
+      <c r="BC49" s="1" t="n">
         <v>76</v>
       </c>
       <c r="BD49" s="19"/>
@@ -6916,51 +6912,51 @@
         <v>28</v>
       </c>
       <c r="BF49" s="17"/>
-      <c r="BG49" s="0" t="n">
+      <c r="BG49" s="1" t="n">
         <v>2317</v>
       </c>
       <c r="BH49" s="17"/>
-      <c r="BI49" s="0" t="n">
+      <c r="BI49" s="1" t="n">
         <v>2971</v>
       </c>
       <c r="BJ49" s="17"/>
-      <c r="BK49" s="0" t="n">
+      <c r="BK49" s="1" t="n">
         <v>302</v>
       </c>
       <c r="BL49" s="17"/>
-      <c r="BM49" s="0" t="n">
+      <c r="BM49" s="1" t="n">
         <v>86</v>
       </c>
       <c r="BN49" s="17"/>
-      <c r="BO49" s="0" t="n">
+      <c r="BO49" s="1" t="n">
         <v>116</v>
       </c>
       <c r="BP49" s="17"/>
-      <c r="BQ49" s="0" t="n">
+      <c r="BQ49" s="1" t="n">
         <v>57</v>
       </c>
       <c r="BR49" s="17"/>
-      <c r="BS49" s="0" t="n">
+      <c r="BS49" s="1" t="n">
         <v>13</v>
       </c>
       <c r="BT49" s="17"/>
-      <c r="BU49" s="0" t="n">
+      <c r="BU49" s="1" t="n">
         <v>29</v>
       </c>
       <c r="BV49" s="17"/>
-      <c r="BW49" s="0" t="n">
+      <c r="BW49" s="1" t="n">
         <v>26</v>
       </c>
       <c r="BX49" s="17"/>
-      <c r="BY49" s="0" t="n">
+      <c r="BY49" s="1" t="n">
         <v>7</v>
       </c>
       <c r="BZ49" s="17"/>
-      <c r="CA49" s="0" t="n">
+      <c r="CA49" s="1" t="n">
         <v>11</v>
       </c>
       <c r="CB49" s="17"/>
-      <c r="CC49" s="0" t="n">
+      <c r="CC49" s="1" t="n">
         <v>21</v>
       </c>
       <c r="CD49" s="17"/>
@@ -6975,7 +6971,7 @@
       <c r="C50" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D50" s="24" t="n">
+      <c r="D50" s="14" t="n">
         <v>1968708</v>
       </c>
       <c r="E50" s="15"/>
@@ -7037,47 +7033,47 @@
         <v>255</v>
       </c>
       <c r="AH50" s="17"/>
-      <c r="AI50" s="0" t="n">
+      <c r="AI50" s="1" t="n">
         <v>1060</v>
       </c>
       <c r="AJ50" s="17"/>
-      <c r="AK50" s="0" t="n">
+      <c r="AK50" s="1" t="n">
         <v>991</v>
       </c>
       <c r="AL50" s="17"/>
-      <c r="AM50" s="0" t="n">
+      <c r="AM50" s="1" t="n">
         <v>490</v>
       </c>
       <c r="AN50" s="17"/>
-      <c r="AO50" s="0" t="n">
+      <c r="AO50" s="1" t="n">
         <v>7711</v>
       </c>
       <c r="AP50" s="17"/>
-      <c r="AQ50" s="0" t="n">
+      <c r="AQ50" s="1" t="n">
         <v>547</v>
       </c>
       <c r="AR50" s="17"/>
-      <c r="AS50" s="0" t="n">
+      <c r="AS50" s="1" t="n">
         <v>797</v>
       </c>
       <c r="AT50" s="17"/>
-      <c r="AU50" s="0" t="n">
+      <c r="AU50" s="1" t="n">
         <v>352</v>
       </c>
       <c r="AV50" s="17"/>
-      <c r="AW50" s="0" t="n">
+      <c r="AW50" s="1" t="n">
         <v>1604</v>
       </c>
       <c r="AX50" s="17"/>
-      <c r="AY50" s="0" t="n">
+      <c r="AY50" s="1" t="n">
         <v>423</v>
       </c>
       <c r="AZ50" s="17"/>
-      <c r="BA50" s="0" t="n">
+      <c r="BA50" s="1" t="n">
         <v>105</v>
       </c>
       <c r="BB50" s="17"/>
-      <c r="BC50" s="0" t="n">
+      <c r="BC50" s="1" t="n">
         <v>410</v>
       </c>
       <c r="BD50" s="19"/>
@@ -7085,51 +7081,51 @@
         <v>280</v>
       </c>
       <c r="BF50" s="17"/>
-      <c r="BG50" s="0" t="n">
+      <c r="BG50" s="1" t="n">
         <v>43230</v>
       </c>
       <c r="BH50" s="17"/>
-      <c r="BI50" s="0" t="n">
+      <c r="BI50" s="1" t="n">
         <v>45640</v>
       </c>
       <c r="BJ50" s="17"/>
-      <c r="BK50" s="0" t="n">
+      <c r="BK50" s="1" t="n">
         <v>2309</v>
       </c>
       <c r="BL50" s="17"/>
-      <c r="BM50" s="0" t="n">
+      <c r="BM50" s="1" t="n">
         <v>951</v>
       </c>
       <c r="BN50" s="17"/>
-      <c r="BO50" s="0" t="n">
+      <c r="BO50" s="1" t="n">
         <v>416</v>
       </c>
       <c r="BP50" s="17"/>
-      <c r="BQ50" s="0" t="n">
+      <c r="BQ50" s="1" t="n">
         <v>762</v>
       </c>
       <c r="BR50" s="17"/>
-      <c r="BS50" s="0" t="n">
+      <c r="BS50" s="1" t="n">
         <v>90</v>
       </c>
       <c r="BT50" s="17"/>
-      <c r="BU50" s="0" t="n">
+      <c r="BU50" s="1" t="n">
         <v>103</v>
       </c>
       <c r="BV50" s="17"/>
-      <c r="BW50" s="0" t="n">
+      <c r="BW50" s="1" t="n">
         <v>277</v>
       </c>
       <c r="BX50" s="17"/>
-      <c r="BY50" s="0" t="n">
+      <c r="BY50" s="1" t="n">
         <v>149</v>
       </c>
       <c r="BZ50" s="17"/>
-      <c r="CA50" s="0" t="n">
+      <c r="CA50" s="1" t="n">
         <v>107</v>
       </c>
       <c r="CB50" s="17"/>
-      <c r="CC50" s="0" t="n">
+      <c r="CC50" s="1" t="n">
         <v>216</v>
       </c>
       <c r="CD50" s="17"/>
@@ -7204,47 +7200,47 @@
         <v>12</v>
       </c>
       <c r="AH51" s="17"/>
-      <c r="AI51" s="0" t="n">
+      <c r="AI51" s="1" t="n">
         <v>30</v>
       </c>
       <c r="AJ51" s="17"/>
-      <c r="AK51" s="0" t="n">
+      <c r="AK51" s="1" t="n">
         <v>34</v>
       </c>
       <c r="AL51" s="17"/>
-      <c r="AM51" s="0" t="n">
+      <c r="AM51" s="1" t="n">
         <v>22</v>
       </c>
       <c r="AN51" s="17"/>
-      <c r="AO51" s="0" t="n">
+      <c r="AO51" s="1" t="n">
         <v>6</v>
       </c>
       <c r="AP51" s="17"/>
-      <c r="AQ51" s="0" t="n">
+      <c r="AQ51" s="1" t="n">
         <v>3252</v>
       </c>
       <c r="AR51" s="17"/>
-      <c r="AS51" s="0" t="n">
+      <c r="AS51" s="1" t="n">
         <v>42</v>
       </c>
       <c r="AT51" s="17"/>
-      <c r="AU51" s="0" t="n">
+      <c r="AU51" s="1" t="n">
         <v>24</v>
       </c>
       <c r="AV51" s="17"/>
-      <c r="AW51" s="0" t="n">
+      <c r="AW51" s="1" t="n">
         <v>52</v>
       </c>
       <c r="AX51" s="17"/>
-      <c r="AY51" s="0" t="n">
+      <c r="AY51" s="1" t="n">
         <v>15</v>
       </c>
       <c r="AZ51" s="17"/>
-      <c r="BA51" s="0" t="n">
+      <c r="BA51" s="1" t="n">
         <v>8</v>
       </c>
       <c r="BB51" s="17"/>
-      <c r="BC51" s="0" t="n">
+      <c r="BC51" s="1" t="n">
         <v>17</v>
       </c>
       <c r="BD51" s="19"/>
@@ -7252,51 +7248,51 @@
         <v>4</v>
       </c>
       <c r="BF51" s="17"/>
-      <c r="BG51" s="0" t="n">
+      <c r="BG51" s="1" t="n">
         <v>770</v>
       </c>
       <c r="BH51" s="17"/>
-      <c r="BI51" s="0" t="n">
+      <c r="BI51" s="1" t="n">
         <v>1159</v>
       </c>
       <c r="BJ51" s="17"/>
-      <c r="BK51" s="0" t="n">
+      <c r="BK51" s="1" t="n">
         <v>113</v>
       </c>
       <c r="BL51" s="17"/>
-      <c r="BM51" s="0" t="n">
+      <c r="BM51" s="1" t="n">
         <v>52</v>
       </c>
       <c r="BN51" s="17"/>
-      <c r="BO51" s="0" t="n">
+      <c r="BO51" s="1" t="n">
         <v>22</v>
       </c>
       <c r="BP51" s="17"/>
-      <c r="BQ51" s="0" t="n">
+      <c r="BQ51" s="1" t="n">
         <v>32</v>
       </c>
       <c r="BR51" s="17"/>
-      <c r="BS51" s="0" t="n">
+      <c r="BS51" s="1" t="n">
         <v>10</v>
       </c>
       <c r="BT51" s="17"/>
-      <c r="BU51" s="0" t="n">
+      <c r="BU51" s="1" t="n">
         <v>13</v>
       </c>
       <c r="BV51" s="17"/>
-      <c r="BW51" s="0" t="n">
+      <c r="BW51" s="1" t="n">
         <v>19</v>
       </c>
       <c r="BX51" s="17"/>
-      <c r="BY51" s="0" t="n">
+      <c r="BY51" s="1" t="n">
         <v>5</v>
       </c>
       <c r="BZ51" s="17"/>
-      <c r="CA51" s="0" t="n">
+      <c r="CA51" s="1" t="n">
         <v>4</v>
       </c>
       <c r="CB51" s="17"/>
-      <c r="CC51" s="0" t="n">
+      <c r="CC51" s="1" t="n">
         <v>9</v>
       </c>
       <c r="CD51" s="17"/>
@@ -7372,47 +7368,47 @@
         <v>99</v>
       </c>
       <c r="AH52" s="17"/>
-      <c r="AI52" s="0" t="n">
+      <c r="AI52" s="1" t="n">
         <v>295</v>
       </c>
       <c r="AJ52" s="17"/>
-      <c r="AK52" s="0" t="n">
+      <c r="AK52" s="1" t="n">
         <v>441</v>
       </c>
       <c r="AL52" s="17"/>
-      <c r="AM52" s="0" t="n">
+      <c r="AM52" s="1" t="n">
         <v>236</v>
       </c>
       <c r="AN52" s="17"/>
-      <c r="AO52" s="0" t="n">
+      <c r="AO52" s="1" t="n">
         <v>246</v>
       </c>
       <c r="AP52" s="17"/>
-      <c r="AQ52" s="0" t="n">
+      <c r="AQ52" s="1" t="n">
         <v>190</v>
       </c>
       <c r="AR52" s="17"/>
-      <c r="AS52" s="0" t="n">
+      <c r="AS52" s="1" t="n">
         <v>283</v>
       </c>
       <c r="AT52" s="17"/>
-      <c r="AU52" s="0" t="n">
+      <c r="AU52" s="1" t="n">
         <v>600</v>
       </c>
       <c r="AV52" s="17"/>
-      <c r="AW52" s="0" t="n">
+      <c r="AW52" s="1" t="n">
         <v>174</v>
       </c>
       <c r="AX52" s="17"/>
-      <c r="AY52" s="0" t="n">
+      <c r="AY52" s="1" t="n">
         <v>78</v>
       </c>
       <c r="AZ52" s="17"/>
-      <c r="BA52" s="0" t="n">
+      <c r="BA52" s="1" t="n">
         <v>27</v>
       </c>
       <c r="BB52" s="17"/>
-      <c r="BC52" s="0" t="n">
+      <c r="BC52" s="1" t="n">
         <v>112</v>
       </c>
       <c r="BD52" s="19"/>
@@ -7420,51 +7416,51 @@
         <v>72</v>
       </c>
       <c r="BF52" s="17"/>
-      <c r="BG52" s="0" t="n">
+      <c r="BG52" s="1" t="n">
         <v>6749</v>
       </c>
       <c r="BH52" s="17"/>
-      <c r="BI52" s="0" t="n">
+      <c r="BI52" s="1" t="n">
         <v>7987</v>
       </c>
       <c r="BJ52" s="17"/>
-      <c r="BK52" s="0" t="n">
+      <c r="BK52" s="1" t="n">
         <v>862</v>
       </c>
       <c r="BL52" s="17"/>
-      <c r="BM52" s="0" t="n">
+      <c r="BM52" s="1" t="n">
         <v>487</v>
       </c>
       <c r="BN52" s="17"/>
-      <c r="BO52" s="0" t="n">
+      <c r="BO52" s="1" t="n">
         <v>171</v>
       </c>
       <c r="BP52" s="17"/>
-      <c r="BQ52" s="0" t="n">
+      <c r="BQ52" s="1" t="n">
         <v>258</v>
       </c>
       <c r="BR52" s="17"/>
-      <c r="BS52" s="0" t="n">
+      <c r="BS52" s="1" t="n">
         <v>281</v>
       </c>
       <c r="BT52" s="17"/>
-      <c r="BU52" s="0" t="n">
+      <c r="BU52" s="1" t="n">
         <v>47</v>
       </c>
       <c r="BV52" s="17"/>
-      <c r="BW52" s="0" t="n">
+      <c r="BW52" s="1" t="n">
         <v>63</v>
       </c>
       <c r="BX52" s="17"/>
-      <c r="BY52" s="0" t="n">
+      <c r="BY52" s="1" t="n">
         <v>137</v>
       </c>
       <c r="BZ52" s="17"/>
-      <c r="CA52" s="0" t="n">
+      <c r="CA52" s="1" t="n">
         <v>75</v>
       </c>
       <c r="CB52" s="17"/>
-      <c r="CC52" s="0" t="n">
+      <c r="CC52" s="1" t="n">
         <v>45</v>
       </c>
       <c r="CD52" s="17"/>
@@ -7540,47 +7536,47 @@
         <v>22</v>
       </c>
       <c r="AH53" s="17"/>
-      <c r="AI53" s="0" t="n">
+      <c r="AI53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="AJ53" s="17"/>
-      <c r="AK53" s="0" t="n">
+      <c r="AK53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="AL53" s="17"/>
-      <c r="AM53" s="0" t="n">
+      <c r="AM53" s="1" t="n">
         <v>32</v>
       </c>
       <c r="AN53" s="17"/>
-      <c r="AO53" s="0" t="n">
+      <c r="AO53" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AP53" s="17"/>
-      <c r="AQ53" s="0" t="n">
+      <c r="AQ53" s="1" t="n">
         <v>5336</v>
       </c>
       <c r="AR53" s="17"/>
-      <c r="AS53" s="0" t="n">
+      <c r="AS53" s="1" t="n">
         <v>58</v>
       </c>
       <c r="AT53" s="17"/>
-      <c r="AU53" s="0" t="n">
+      <c r="AU53" s="1" t="n">
         <v>44</v>
       </c>
       <c r="AV53" s="17"/>
-      <c r="AW53" s="0" t="n">
+      <c r="AW53" s="1" t="n">
         <v>97</v>
       </c>
       <c r="AX53" s="17"/>
-      <c r="AY53" s="0" t="n">
+      <c r="AY53" s="1" t="n">
         <v>13</v>
       </c>
       <c r="AZ53" s="17"/>
-      <c r="BA53" s="0" t="n">
+      <c r="BA53" s="1" t="n">
         <v>2</v>
       </c>
       <c r="BB53" s="17"/>
-      <c r="BC53" s="0" t="n">
+      <c r="BC53" s="1" t="n">
         <v>84</v>
       </c>
       <c r="BD53" s="19"/>
@@ -7588,51 +7584,51 @@
         <v>9</v>
       </c>
       <c r="BF53" s="17"/>
-      <c r="BG53" s="0" t="n">
+      <c r="BG53" s="1" t="n">
         <v>1645</v>
       </c>
       <c r="BH53" s="17"/>
-      <c r="BI53" s="0" t="n">
+      <c r="BI53" s="1" t="n">
         <v>2520</v>
       </c>
       <c r="BJ53" s="17"/>
-      <c r="BK53" s="0" t="n">
+      <c r="BK53" s="1" t="n">
         <v>232</v>
       </c>
       <c r="BL53" s="17"/>
-      <c r="BM53" s="0" t="n">
+      <c r="BM53" s="1" t="n">
         <v>62</v>
       </c>
       <c r="BN53" s="17"/>
-      <c r="BO53" s="0" t="n">
+      <c r="BO53" s="1" t="n">
         <v>68</v>
       </c>
       <c r="BP53" s="17"/>
-      <c r="BQ53" s="0" t="n">
+      <c r="BQ53" s="1" t="n">
         <v>69</v>
       </c>
       <c r="BR53" s="17"/>
-      <c r="BS53" s="0" t="n">
+      <c r="BS53" s="1" t="n">
         <v>11</v>
       </c>
       <c r="BT53" s="17"/>
-      <c r="BU53" s="0" t="n">
+      <c r="BU53" s="1" t="n">
         <v>6</v>
       </c>
       <c r="BV53" s="17"/>
-      <c r="BW53" s="0" t="n">
+      <c r="BW53" s="1" t="n">
         <v>34</v>
       </c>
       <c r="BX53" s="17"/>
-      <c r="BY53" s="0" t="n">
+      <c r="BY53" s="1" t="n">
         <v>4</v>
       </c>
       <c r="BZ53" s="17"/>
-      <c r="CA53" s="0" t="n">
+      <c r="CA53" s="1" t="n">
         <v>10</v>
       </c>
       <c r="CB53" s="17"/>
-      <c r="CC53" s="0" t="n">
+      <c r="CC53" s="1" t="n">
         <v>20</v>
       </c>
       <c r="CD53" s="17"/>
@@ -7708,47 +7704,47 @@
         <v>67</v>
       </c>
       <c r="AH54" s="17"/>
-      <c r="AI54" s="0" t="n">
+      <c r="AI54" s="1" t="n">
         <v>276</v>
       </c>
       <c r="AJ54" s="17"/>
-      <c r="AK54" s="0" t="n">
+      <c r="AK54" s="1" t="n">
         <v>274</v>
       </c>
       <c r="AL54" s="17"/>
-      <c r="AM54" s="0" t="n">
+      <c r="AM54" s="1" t="n">
         <v>155</v>
       </c>
       <c r="AN54" s="17"/>
-      <c r="AO54" s="0" t="n">
+      <c r="AO54" s="1" t="n">
         <v>60</v>
       </c>
       <c r="AP54" s="17"/>
-      <c r="AQ54" s="0" t="n">
+      <c r="AQ54" s="1" t="n">
         <v>236</v>
       </c>
       <c r="AR54" s="17"/>
-      <c r="AS54" s="0" t="n">
+      <c r="AS54" s="1" t="n">
         <v>151</v>
       </c>
       <c r="AT54" s="17"/>
-      <c r="AU54" s="0" t="n">
+      <c r="AU54" s="1" t="n">
         <v>110</v>
       </c>
       <c r="AV54" s="17"/>
-      <c r="AW54" s="0" t="n">
+      <c r="AW54" s="1" t="n">
         <v>302</v>
       </c>
       <c r="AX54" s="17"/>
-      <c r="AY54" s="0" t="n">
+      <c r="AY54" s="1" t="n">
         <v>97</v>
       </c>
       <c r="AZ54" s="17"/>
-      <c r="BA54" s="0" t="n">
+      <c r="BA54" s="1" t="n">
         <v>51</v>
       </c>
       <c r="BB54" s="17"/>
-      <c r="BC54" s="0" t="n">
+      <c r="BC54" s="1" t="n">
         <v>266</v>
       </c>
       <c r="BD54" s="19"/>
@@ -7756,51 +7752,51 @@
         <v>74</v>
       </c>
       <c r="BF54" s="17"/>
-      <c r="BG54" s="0" t="n">
+      <c r="BG54" s="1" t="n">
         <v>7964</v>
       </c>
       <c r="BH54" s="17"/>
-      <c r="BI54" s="0" t="n">
+      <c r="BI54" s="1" t="n">
         <v>12965</v>
       </c>
       <c r="BJ54" s="17"/>
-      <c r="BK54" s="0" t="n">
+      <c r="BK54" s="1" t="n">
         <v>1045</v>
       </c>
       <c r="BL54" s="17"/>
-      <c r="BM54" s="0" t="n">
+      <c r="BM54" s="1" t="n">
         <v>235</v>
       </c>
       <c r="BN54" s="17"/>
-      <c r="BO54" s="0" t="n">
+      <c r="BO54" s="1" t="n">
         <v>197</v>
       </c>
       <c r="BP54" s="17"/>
-      <c r="BQ54" s="0" t="n">
+      <c r="BQ54" s="1" t="n">
         <v>182</v>
       </c>
       <c r="BR54" s="17"/>
-      <c r="BS54" s="0" t="n">
+      <c r="BS54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="BT54" s="17"/>
-      <c r="BU54" s="0" t="n">
+      <c r="BU54" s="1" t="n">
         <v>32</v>
       </c>
       <c r="BV54" s="17"/>
-      <c r="BW54" s="0" t="n">
+      <c r="BW54" s="1" t="n">
         <v>64</v>
       </c>
       <c r="BX54" s="17"/>
-      <c r="BY54" s="0" t="n">
+      <c r="BY54" s="1" t="n">
         <v>69</v>
       </c>
       <c r="BZ54" s="17"/>
-      <c r="CA54" s="0" t="n">
+      <c r="CA54" s="1" t="n">
         <v>45</v>
       </c>
       <c r="CB54" s="17"/>
-      <c r="CC54" s="0" t="n">
+      <c r="CC54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="CD54" s="17"/>
@@ -7877,47 +7873,47 @@
         <v>698</v>
       </c>
       <c r="AH55" s="17"/>
-      <c r="AI55" s="0" t="n">
+      <c r="AI55" s="1" t="n">
         <v>1405</v>
       </c>
       <c r="AJ55" s="17"/>
-      <c r="AK55" s="0" t="n">
+      <c r="AK55" s="1" t="n">
         <v>2051</v>
       </c>
       <c r="AL55" s="17"/>
-      <c r="AM55" s="0" t="n">
+      <c r="AM55" s="1" t="n">
         <v>834</v>
       </c>
       <c r="AN55" s="17"/>
-      <c r="AO55" s="0" t="n">
+      <c r="AO55" s="1" t="n">
         <v>334</v>
       </c>
       <c r="AP55" s="17"/>
-      <c r="AQ55" s="0" t="n">
+      <c r="AQ55" s="1" t="n">
         <v>1625</v>
       </c>
       <c r="AR55" s="17"/>
-      <c r="AS55" s="0" t="n">
+      <c r="AS55" s="1" t="n">
         <v>624</v>
       </c>
       <c r="AT55" s="17"/>
-      <c r="AU55" s="0" t="n">
+      <c r="AU55" s="1" t="n">
         <v>492</v>
       </c>
       <c r="AV55" s="17"/>
-      <c r="AW55" s="0" t="n">
+      <c r="AW55" s="1" t="n">
         <v>1486</v>
       </c>
       <c r="AX55" s="17"/>
-      <c r="AY55" s="0" t="n">
+      <c r="AY55" s="1" t="n">
         <v>629</v>
       </c>
       <c r="AZ55" s="17"/>
-      <c r="BA55" s="0" t="n">
+      <c r="BA55" s="1" t="n">
         <v>104</v>
       </c>
       <c r="BB55" s="17"/>
-      <c r="BC55" s="0" t="n">
+      <c r="BC55" s="1" t="n">
         <v>519</v>
       </c>
       <c r="BD55" s="19"/>
@@ -7925,51 +7921,51 @@
         <v>395</v>
       </c>
       <c r="BF55" s="17"/>
-      <c r="BG55" s="0" t="n">
+      <c r="BG55" s="1" t="n">
         <v>97260</v>
       </c>
       <c r="BH55" s="17"/>
-      <c r="BI55" s="0" t="n">
+      <c r="BI55" s="1" t="n">
         <v>63090</v>
       </c>
       <c r="BJ55" s="17"/>
-      <c r="BK55" s="0" t="n">
+      <c r="BK55" s="1" t="n">
         <v>4450</v>
       </c>
       <c r="BL55" s="17"/>
-      <c r="BM55" s="0" t="n">
+      <c r="BM55" s="1" t="n">
         <v>1663</v>
       </c>
       <c r="BN55" s="17"/>
-      <c r="BO55" s="0" t="n">
+      <c r="BO55" s="1" t="n">
         <v>584</v>
       </c>
       <c r="BP55" s="17"/>
-      <c r="BQ55" s="0" t="n">
+      <c r="BQ55" s="1" t="n">
         <v>1120</v>
       </c>
       <c r="BR55" s="17"/>
-      <c r="BS55" s="0" t="n">
+      <c r="BS55" s="1" t="n">
         <v>828</v>
       </c>
       <c r="BT55" s="17"/>
-      <c r="BU55" s="0" t="n">
+      <c r="BU55" s="1" t="n">
         <v>173</v>
       </c>
       <c r="BV55" s="17"/>
-      <c r="BW55" s="0" t="n">
+      <c r="BW55" s="1" t="n">
         <v>393</v>
       </c>
       <c r="BX55" s="17"/>
-      <c r="BY55" s="0" t="n">
+      <c r="BY55" s="1" t="n">
         <v>136</v>
       </c>
       <c r="BZ55" s="17"/>
-      <c r="CA55" s="0" t="n">
+      <c r="CA55" s="1" t="n">
         <v>189</v>
       </c>
       <c r="CB55" s="17"/>
-      <c r="CC55" s="0" t="n">
+      <c r="CC55" s="1" t="n">
         <v>229</v>
       </c>
       <c r="CD55" s="17"/>
@@ -8045,47 +8041,47 @@
         <v>81</v>
       </c>
       <c r="AH56" s="17"/>
-      <c r="AI56" s="0" t="n">
+      <c r="AI56" s="1" t="n">
         <v>275</v>
       </c>
       <c r="AJ56" s="17"/>
-      <c r="AK56" s="0" t="n">
+      <c r="AK56" s="1" t="n">
         <v>313</v>
       </c>
       <c r="AL56" s="17"/>
-      <c r="AM56" s="0" t="n">
+      <c r="AM56" s="1" t="n">
         <v>115</v>
       </c>
       <c r="AN56" s="17"/>
-      <c r="AO56" s="0" t="n">
+      <c r="AO56" s="1" t="n">
         <v>22</v>
       </c>
       <c r="AP56" s="17"/>
-      <c r="AQ56" s="0" t="n">
+      <c r="AQ56" s="1" t="n">
         <v>600</v>
       </c>
       <c r="AR56" s="17"/>
-      <c r="AS56" s="0" t="n">
+      <c r="AS56" s="1" t="n">
         <v>249</v>
       </c>
       <c r="AT56" s="17"/>
-      <c r="AU56" s="0" t="n">
+      <c r="AU56" s="1" t="n">
         <v>141</v>
       </c>
       <c r="AV56" s="17"/>
-      <c r="AW56" s="0" t="n">
+      <c r="AW56" s="1" t="n">
         <v>1011</v>
       </c>
       <c r="AX56" s="17"/>
-      <c r="AY56" s="0" t="n">
+      <c r="AY56" s="1" t="n">
         <v>128</v>
       </c>
       <c r="AZ56" s="17"/>
-      <c r="BA56" s="0" t="n">
+      <c r="BA56" s="1" t="n">
         <v>29</v>
       </c>
       <c r="BB56" s="17"/>
-      <c r="BC56" s="0" t="n">
+      <c r="BC56" s="1" t="n">
         <v>233</v>
       </c>
       <c r="BD56" s="19"/>
@@ -8093,51 +8089,51 @@
         <v>88</v>
       </c>
       <c r="BF56" s="17"/>
-      <c r="BG56" s="0" t="n">
+      <c r="BG56" s="1" t="n">
         <v>8808</v>
       </c>
       <c r="BH56" s="17"/>
-      <c r="BI56" s="0" t="n">
+      <c r="BI56" s="1" t="n">
         <v>11072</v>
       </c>
       <c r="BJ56" s="17"/>
-      <c r="BK56" s="0" t="n">
+      <c r="BK56" s="1" t="n">
         <v>1162</v>
       </c>
       <c r="BL56" s="17"/>
-      <c r="BM56" s="0" t="n">
+      <c r="BM56" s="1" t="n">
         <v>285</v>
       </c>
       <c r="BN56" s="17"/>
-      <c r="BO56" s="0" t="n">
+      <c r="BO56" s="1" t="n">
         <v>172</v>
       </c>
       <c r="BP56" s="17"/>
-      <c r="BQ56" s="0" t="n">
+      <c r="BQ56" s="1" t="n">
         <v>323</v>
       </c>
       <c r="BR56" s="17"/>
-      <c r="BS56" s="0" t="n">
+      <c r="BS56" s="1" t="n">
         <v>44</v>
       </c>
       <c r="BT56" s="17"/>
-      <c r="BU56" s="0" t="n">
+      <c r="BU56" s="1" t="n">
         <v>143</v>
       </c>
       <c r="BV56" s="17"/>
-      <c r="BW56" s="0" t="n">
+      <c r="BW56" s="1" t="n">
         <v>141</v>
       </c>
       <c r="BX56" s="17"/>
-      <c r="BY56" s="0" t="n">
+      <c r="BY56" s="1" t="n">
         <v>17</v>
       </c>
       <c r="BZ56" s="17"/>
-      <c r="CA56" s="0" t="n">
+      <c r="CA56" s="1" t="n">
         <v>46</v>
       </c>
       <c r="CB56" s="17"/>
-      <c r="CC56" s="0" t="n">
+      <c r="CC56" s="1" t="n">
         <v>46</v>
       </c>
       <c r="CD56" s="17"/>
@@ -8213,11 +8209,11 @@
         <v>27</v>
       </c>
       <c r="AH57" s="17"/>
-      <c r="AI57" s="0" t="n">
+      <c r="AI57" s="1" t="n">
         <v>73</v>
       </c>
       <c r="AJ57" s="17"/>
-      <c r="AK57" s="0" t="n">
+      <c r="AK57" s="1" t="n">
         <v>65</v>
       </c>
       <c r="AL57" s="17"/>
@@ -8225,7 +8221,7 @@
         <v>73</v>
       </c>
       <c r="AN57" s="17"/>
-      <c r="AO57" s="0" t="n">
+      <c r="AO57" s="1" t="n">
         <v>10</v>
       </c>
       <c r="AP57" s="17"/>
@@ -8233,79 +8229,79 @@
         <v>38</v>
       </c>
       <c r="AR57" s="17"/>
-      <c r="AS57" s="0" t="n">
+      <c r="AS57" s="1" t="n">
         <v>46</v>
       </c>
       <c r="AT57" s="17"/>
-      <c r="AU57" s="0" t="n">
+      <c r="AU57" s="1" t="n">
         <v>37</v>
       </c>
       <c r="AV57" s="17"/>
-      <c r="AW57" s="0" t="n">
+      <c r="AW57" s="1" t="n">
         <v>166</v>
       </c>
       <c r="AX57" s="17"/>
-      <c r="AY57" s="0" t="n">
+      <c r="AY57" s="1" t="n">
         <v>26</v>
       </c>
       <c r="AZ57" s="17"/>
-      <c r="BA57" s="0" t="n">
+      <c r="BA57" s="1" t="n">
         <v>7</v>
       </c>
       <c r="BB57" s="17"/>
-      <c r="BC57" s="0" t="n">
+      <c r="BC57" s="1" t="n">
         <v>50</v>
       </c>
       <c r="BD57" s="19"/>
-      <c r="BE57" s="0" t="n">
+      <c r="BE57" s="1" t="n">
         <v>18</v>
       </c>
       <c r="BF57" s="17"/>
-      <c r="BG57" s="0" t="n">
+      <c r="BG57" s="1" t="n">
         <v>1366</v>
       </c>
       <c r="BH57" s="17"/>
-      <c r="BI57" s="0" t="n">
+      <c r="BI57" s="1" t="n">
         <v>2394</v>
       </c>
       <c r="BJ57" s="17"/>
-      <c r="BK57" s="0" t="n">
+      <c r="BK57" s="1" t="n">
         <v>199</v>
       </c>
       <c r="BL57" s="17"/>
-      <c r="BM57" s="0" t="n">
+      <c r="BM57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="BN57" s="17"/>
-      <c r="BO57" s="0" t="n">
+      <c r="BO57" s="1" t="n">
         <v>325</v>
       </c>
       <c r="BP57" s="17"/>
-      <c r="BQ57" s="0" t="n">
+      <c r="BQ57" s="1" t="n">
         <v>43</v>
       </c>
       <c r="BR57" s="17"/>
-      <c r="BS57" s="0" t="n">
+      <c r="BS57" s="1" t="n">
         <v>13</v>
       </c>
       <c r="BT57" s="17"/>
-      <c r="BU57" s="0" t="n">
+      <c r="BU57" s="1" t="n">
         <v>470</v>
       </c>
       <c r="BV57" s="17"/>
-      <c r="BW57" s="0" t="n">
+      <c r="BW57" s="1" t="n">
         <v>128</v>
       </c>
       <c r="BX57" s="17"/>
-      <c r="BY57" s="0" t="n">
+      <c r="BY57" s="1" t="n">
         <v>5</v>
       </c>
       <c r="BZ57" s="17"/>
-      <c r="CA57" s="0" t="n">
+      <c r="CA57" s="1" t="n">
         <v>20</v>
       </c>
       <c r="CB57" s="17"/>
-      <c r="CC57" s="0" t="n">
+      <c r="CC57" s="1" t="n">
         <v>11</v>
       </c>
       <c r="CD57" s="17"/>
@@ -8382,11 +8378,11 @@
         <v>314</v>
       </c>
       <c r="AH58" s="17"/>
-      <c r="AI58" s="0" t="n">
+      <c r="AI58" s="1" t="n">
         <v>427</v>
       </c>
       <c r="AJ58" s="17"/>
-      <c r="AK58" s="0" t="n">
+      <c r="AK58" s="1" t="n">
         <v>582</v>
       </c>
       <c r="AL58" s="17"/>
@@ -8394,7 +8390,7 @@
         <v>427</v>
       </c>
       <c r="AN58" s="17"/>
-      <c r="AO58" s="0" t="n">
+      <c r="AO58" s="1" t="n">
         <v>84</v>
       </c>
       <c r="AP58" s="17"/>
@@ -8402,79 +8398,79 @@
         <v>153</v>
       </c>
       <c r="AR58" s="17"/>
-      <c r="AS58" s="0" t="n">
+      <c r="AS58" s="1" t="n">
         <v>399</v>
       </c>
       <c r="AT58" s="17"/>
-      <c r="AU58" s="0" t="n">
+      <c r="AU58" s="1" t="n">
         <v>252</v>
       </c>
       <c r="AV58" s="17"/>
-      <c r="AW58" s="0" t="n">
+      <c r="AW58" s="1" t="n">
         <v>1084</v>
       </c>
       <c r="AX58" s="17"/>
-      <c r="AY58" s="0" t="n">
+      <c r="AY58" s="1" t="n">
         <v>246</v>
       </c>
       <c r="AZ58" s="17"/>
-      <c r="BA58" s="0" t="n">
+      <c r="BA58" s="1" t="n">
         <v>35</v>
       </c>
       <c r="BB58" s="17"/>
-      <c r="BC58" s="0" t="n">
+      <c r="BC58" s="1" t="n">
         <v>289</v>
       </c>
       <c r="BD58" s="19"/>
-      <c r="BE58" s="0" t="n">
+      <c r="BE58" s="1" t="n">
         <v>132</v>
       </c>
       <c r="BF58" s="17"/>
-      <c r="BG58" s="0" t="n">
+      <c r="BG58" s="1" t="n">
         <v>20705</v>
       </c>
       <c r="BH58" s="17"/>
-      <c r="BI58" s="0" t="n">
+      <c r="BI58" s="1" t="n">
         <v>19961</v>
       </c>
       <c r="BJ58" s="17"/>
-      <c r="BK58" s="0" t="n">
+      <c r="BK58" s="1" t="n">
         <v>2158</v>
       </c>
       <c r="BL58" s="17"/>
-      <c r="BM58" s="0" t="n">
+      <c r="BM58" s="1" t="n">
         <v>779</v>
       </c>
       <c r="BN58" s="17"/>
-      <c r="BO58" s="0" t="n">
+      <c r="BO58" s="1" t="n">
         <v>198</v>
       </c>
       <c r="BP58" s="17"/>
-      <c r="BQ58" s="0" t="n">
+      <c r="BQ58" s="1" t="n">
         <v>895</v>
       </c>
       <c r="BR58" s="17"/>
-      <c r="BS58" s="0" t="n">
+      <c r="BS58" s="1" t="n">
         <v>114</v>
       </c>
       <c r="BT58" s="17"/>
-      <c r="BU58" s="0" t="n">
+      <c r="BU58" s="1" t="n">
         <v>48</v>
       </c>
       <c r="BV58" s="17"/>
-      <c r="BW58" s="0" t="n">
+      <c r="BW58" s="1" t="n">
         <v>126</v>
       </c>
       <c r="BX58" s="17"/>
-      <c r="BY58" s="0" t="n">
+      <c r="BY58" s="1" t="n">
         <v>40</v>
       </c>
       <c r="BZ58" s="17"/>
-      <c r="CA58" s="0" t="n">
+      <c r="CA58" s="1" t="n">
         <v>43</v>
       </c>
       <c r="CB58" s="17"/>
-      <c r="CC58" s="0" t="n">
+      <c r="CC58" s="1" t="n">
         <v>262</v>
       </c>
       <c r="CD58" s="17"/>
@@ -8488,321 +8484,321 @@
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
       <c r="O59" s="15"/>
-      <c r="P59" s="26"/>
+      <c r="P59" s="25"/>
       <c r="Q59" s="15"/>
-      <c r="R59" s="26"/>
-      <c r="T59" s="26"/>
-      <c r="V59" s="26"/>
+      <c r="R59" s="25"/>
+      <c r="T59" s="25"/>
+      <c r="V59" s="25"/>
       <c r="W59" s="15"/>
-      <c r="X59" s="26"/>
-      <c r="Z59" s="26"/>
-      <c r="AB59" s="26"/>
-      <c r="AD59" s="26"/>
-      <c r="AF59" s="26"/>
-      <c r="AH59" s="26"/>
-      <c r="AJ59" s="26"/>
-      <c r="AL59" s="26"/>
-      <c r="AN59" s="26"/>
-      <c r="AP59" s="26"/>
-      <c r="AR59" s="26"/>
-      <c r="AT59" s="26"/>
-      <c r="AV59" s="26"/>
-      <c r="AX59" s="26"/>
-      <c r="AZ59" s="26"/>
-      <c r="BB59" s="26"/>
-      <c r="BD59" s="26"/>
-      <c r="BF59" s="26"/>
-      <c r="BH59" s="26"/>
-      <c r="BJ59" s="26"/>
-      <c r="BL59" s="26"/>
-      <c r="BN59" s="26"/>
-      <c r="BP59" s="26"/>
-      <c r="BR59" s="26"/>
-      <c r="BT59" s="26"/>
-      <c r="BV59" s="26"/>
-      <c r="BX59" s="26"/>
-      <c r="BZ59" s="26"/>
+      <c r="X59" s="25"/>
+      <c r="Z59" s="25"/>
+      <c r="AB59" s="25"/>
+      <c r="AD59" s="25"/>
+      <c r="AF59" s="25"/>
+      <c r="AH59" s="25"/>
+      <c r="AJ59" s="25"/>
+      <c r="AL59" s="25"/>
+      <c r="AN59" s="25"/>
+      <c r="AP59" s="25"/>
+      <c r="AR59" s="25"/>
+      <c r="AT59" s="25"/>
+      <c r="AV59" s="25"/>
+      <c r="AX59" s="25"/>
+      <c r="AZ59" s="25"/>
+      <c r="BB59" s="25"/>
+      <c r="BD59" s="25"/>
+      <c r="BF59" s="25"/>
+      <c r="BH59" s="25"/>
+      <c r="BJ59" s="25"/>
+      <c r="BL59" s="25"/>
+      <c r="BN59" s="25"/>
+      <c r="BP59" s="25"/>
+      <c r="BR59" s="25"/>
+      <c r="BT59" s="25"/>
+      <c r="BV59" s="25"/>
+      <c r="BX59" s="25"/>
+      <c r="BZ59" s="25"/>
     </row>
-    <row r="60" s="27" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="27" t="s">
+    <row r="60" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="26" t="s">
         <v>148</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D60" s="28" t="n">
+      <c r="D60" s="27" t="n">
         <f aca="false">SUM(D7:D58)</f>
         <v>13418584</v>
       </c>
-      <c r="E60" s="28" t="n">
+      <c r="E60" s="27" t="n">
         <v>60076</v>
       </c>
-      <c r="F60" s="28" t="n">
+      <c r="F60" s="27" t="n">
         <v>35136079</v>
       </c>
-      <c r="G60" s="28" t="n">
+      <c r="G60" s="27" t="n">
         <v>2112809</v>
       </c>
-      <c r="H60" s="28" t="n">
+      <c r="H60" s="27" t="n">
         <f aca="false">SUM(H7:H58)</f>
         <v>10001988</v>
       </c>
-      <c r="I60" s="28" t="n">
+      <c r="I60" s="27" t="n">
         <f aca="false">SUM(I7:I58)</f>
         <v>5067889</v>
       </c>
-      <c r="J60" s="28" t="n">
+      <c r="J60" s="27" t="n">
         <f aca="false">SUM(J7:J58)</f>
         <v>5029165</v>
       </c>
-      <c r="K60" s="28" t="n">
+      <c r="K60" s="27" t="n">
         <f aca="false">SUM(K7:K58)</f>
         <v>38724</v>
       </c>
-      <c r="L60" s="28" t="n">
+      <c r="L60" s="27" t="n">
         <v>216736</v>
       </c>
-      <c r="M60" s="28" t="n">
+      <c r="M60" s="27" t="n">
         <v>193918</v>
       </c>
-      <c r="N60" s="28"/>
-      <c r="O60" s="28" t="n">
+      <c r="N60" s="27"/>
+      <c r="O60" s="27" t="n">
         <f aca="false">SUM(O7:O58)</f>
         <v>1514962</v>
       </c>
-      <c r="P60" s="27" t="n">
+      <c r="P60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="Q60" s="28" t="n">
+      <c r="Q60" s="27" t="n">
         <f aca="false">SUM(Q7:Q58)</f>
         <v>1832881</v>
       </c>
-      <c r="R60" s="27" t="n">
+      <c r="R60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="S60" s="28" t="n">
+      <c r="S60" s="27" t="n">
         <f aca="false">SUM(S7:S58)</f>
         <v>34276</v>
       </c>
-      <c r="T60" s="27" t="n">
+      <c r="T60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="U60" s="28" t="n">
+      <c r="U60" s="27" t="n">
         <f aca="false">SUM(U7:U58)</f>
         <v>145166</v>
       </c>
-      <c r="V60" s="27" t="n">
+      <c r="V60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="W60" s="28" t="n">
+      <c r="W60" s="27" t="n">
         <f aca="false">SUM(W7:W58)</f>
         <v>527440</v>
       </c>
-      <c r="X60" s="27" t="n">
+      <c r="X60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="Y60" s="28" t="n">
+      <c r="Y60" s="27" t="n">
         <f aca="false">SUM(Y7:Y58)</f>
         <v>182122</v>
       </c>
-      <c r="Z60" s="27" t="n">
+      <c r="Z60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AA60" s="28" t="n">
+      <c r="AA60" s="27" t="n">
         <f aca="false">SUM(AA7:AA58)</f>
         <v>45686</v>
       </c>
-      <c r="AB60" s="27" t="n">
+      <c r="AB60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AC60" s="28" t="n">
+      <c r="AC60" s="27" t="n">
         <f aca="false">SUM(AC7:AC58)</f>
         <v>55781</v>
       </c>
-      <c r="AD60" s="27" t="n">
+      <c r="AD60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AE60" s="28" t="n">
+      <c r="AE60" s="27" t="n">
         <f aca="false">SUM(AE7:AE58)</f>
         <v>36571</v>
       </c>
-      <c r="AF60" s="27" t="n">
+      <c r="AF60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AG60" s="28" t="n">
+      <c r="AG60" s="27" t="n">
         <f aca="false">SUM(AG7:AG58)</f>
         <v>2490</v>
       </c>
-      <c r="AH60" s="27" t="n">
+      <c r="AH60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AI60" s="28" t="n">
+      <c r="AI60" s="27" t="n">
         <f aca="false">SUM(AI7:AI58)</f>
         <v>6324</v>
       </c>
-      <c r="AJ60" s="27" t="n">
+      <c r="AJ60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AK60" s="28" t="n">
+      <c r="AK60" s="27" t="n">
         <f aca="false">SUM(AK7:AK58)</f>
         <v>7828</v>
       </c>
-      <c r="AL60" s="27" t="n">
+      <c r="AL60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AM60" s="28" t="n">
+      <c r="AM60" s="27" t="n">
         <f aca="false">SUM(AM7:AM58)</f>
         <v>3437</v>
       </c>
-      <c r="AN60" s="27" t="n">
+      <c r="AN60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AO60" s="28" t="n">
+      <c r="AO60" s="27" t="n">
         <f aca="false">SUM(AO7:AO58)</f>
         <v>8862</v>
       </c>
-      <c r="AP60" s="27" t="n">
+      <c r="AP60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AQ60" s="28" t="n">
+      <c r="AQ60" s="27" t="n">
         <f aca="false">SUM(AQ7:AQ58)</f>
         <v>14392</v>
       </c>
-      <c r="AR60" s="27" t="n">
+      <c r="AR60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AS60" s="28" t="n">
+      <c r="AS60" s="27" t="n">
         <f aca="false">SUM(AS7:AS58)</f>
         <v>3808</v>
       </c>
-      <c r="AT60" s="27" t="n">
+      <c r="AT60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AU60" s="28" t="n">
+      <c r="AU60" s="27" t="n">
         <f aca="false">SUM(AU7:AU58)</f>
         <v>3168</v>
       </c>
-      <c r="AV60" s="27" t="n">
+      <c r="AV60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AW60" s="28" t="n">
+      <c r="AW60" s="27" t="n">
         <f aca="false">SUM(AW7:AW58)</f>
         <v>8914</v>
       </c>
-      <c r="AX60" s="27" t="n">
+      <c r="AX60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AY60" s="28" t="n">
+      <c r="AY60" s="27" t="n">
         <f aca="false">SUM(AY7:AY58)</f>
         <v>2591</v>
       </c>
-      <c r="AZ60" s="27" t="n">
+      <c r="AZ60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="BA60" s="28" t="n">
+      <c r="BA60" s="27" t="n">
         <f aca="false">SUM(BA7:BA58)</f>
         <v>567</v>
       </c>
-      <c r="BB60" s="27" t="n">
+      <c r="BB60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="BC60" s="28" t="n">
+      <c r="BC60" s="27" t="n">
         <f aca="false">SUM(BC7:BC58)</f>
         <v>2900</v>
       </c>
-      <c r="BD60" s="27" t="n">
+      <c r="BD60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="BE60" s="28" t="n">
+      <c r="BE60" s="27" t="n">
         <f aca="false">SUM(BE7:BE58)</f>
         <v>1783</v>
       </c>
-      <c r="BF60" s="27" t="n">
+      <c r="BF60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="BG60" s="28" t="n">
+      <c r="BG60" s="27" t="n">
         <f aca="false">SUM(BG7:BG58)</f>
         <v>245810</v>
       </c>
-      <c r="BH60" s="27" t="n">
+      <c r="BH60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="BI60" s="28" t="n">
+      <c r="BI60" s="27" t="n">
         <f aca="false">SUM(BI7:BI58)</f>
         <v>250898</v>
       </c>
-      <c r="BJ60" s="27" t="n">
+      <c r="BJ60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="BK60" s="28" t="n">
+      <c r="BK60" s="27" t="n">
         <f aca="false">SUM(BK7:BK58)</f>
         <v>19001</v>
       </c>
-      <c r="BL60" s="27" t="n">
+      <c r="BL60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="BM60" s="28" t="n">
+      <c r="BM60" s="27" t="n">
         <f aca="false">SUM(BM7:BM58)</f>
         <v>7374</v>
       </c>
-      <c r="BN60" s="27" t="n">
+      <c r="BN60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="BO60" s="28" t="n">
+      <c r="BO60" s="27" t="n">
         <f aca="false">SUM(BO7:BO58)</f>
         <v>3230</v>
       </c>
-      <c r="BP60" s="27" t="n">
+      <c r="BP60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="BQ60" s="28" t="n">
+      <c r="BQ60" s="27" t="n">
         <f aca="false">SUM(BQ7:BQ58)</f>
         <v>5954</v>
       </c>
-      <c r="BR60" s="27" t="n">
+      <c r="BR60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="BS60" s="28" t="n">
+      <c r="BS60" s="27" t="n">
         <f aca="false">SUM(BS7:BS58)</f>
         <v>1945</v>
       </c>
-      <c r="BT60" s="27" t="n">
+      <c r="BT60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="BU60" s="28" t="n">
+      <c r="BU60" s="27" t="n">
         <f aca="false">SUM(BU7:BU58)</f>
         <v>1840</v>
       </c>
-      <c r="BV60" s="27" t="n">
+      <c r="BV60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="BW60" s="28" t="n">
+      <c r="BW60" s="27" t="n">
         <f aca="false">SUM(BW7:BW58)</f>
         <v>1903</v>
       </c>
-      <c r="BX60" s="27" t="n">
+      <c r="BX60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="BY60" s="28" t="n">
+      <c r="BY60" s="27" t="n">
         <f aca="false">SUM(BY7:BY58)</f>
         <v>832</v>
       </c>
-      <c r="BZ60" s="27" t="n">
+      <c r="BZ60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="CA60" s="28" t="n">
+      <c r="CA60" s="27" t="n">
         <f aca="false">SUM(CA7:CA58)</f>
         <v>1681</v>
       </c>
-      <c r="CB60" s="27" t="n">
+      <c r="CB60" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="CC60" s="28" t="n">
+      <c r="CC60" s="27" t="n">
         <f aca="false">SUM(CC7:CC58)</f>
         <v>1378</v>
       </c>
-      <c r="CD60" s="27" t="n">
+      <c r="CD60" s="26" t="n">
         <v>0</v>
       </c>
     </row>
